--- a/imageToSpreadsheet/Book1.xlsx
+++ b/imageToSpreadsheet/Book1.xlsx
@@ -1,27 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId4"/>
+    <sheet name="View" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +58,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -41,3239 +66,3036 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1">
-        <v>8425103</v>
-      </c>
-      <c r="B1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>8359312</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="0" t="n">
         <v>8359312</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0" t="n">
         <v>8359312</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="0" t="n">
         <v>8556691</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="0" t="n">
         <v>8688277</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0" t="n">
         <v>8885656</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="0" t="n">
         <v>9082781</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="0" t="n">
         <v>9083292</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="0" t="n">
         <v>9149085</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="0" t="n">
         <v>7896448</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="0" t="n">
         <v>4537913</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="0" t="n">
         <v>2892057</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="0" t="n">
         <v>3287069</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="0" t="n">
         <v>4930605</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="0" t="n">
         <v>5916470</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="0" t="n">
         <v>4732974</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="0" t="n">
         <v>4404010</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="0" t="n">
         <v>3484196</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="0" t="n">
         <v>6975598</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="0" t="n">
         <v>8754070</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="0" t="n">
         <v>8753300</v>
       </c>
-      <c r="W1">
-        <v>8425103</v>
-      </c>
-      <c r="X1">
-        <v>8425103</v>
-      </c>
-      <c r="Y1">
-        <v>8425103</v>
-      </c>
-      <c r="Z1">
-        <v>8425103</v>
-      </c>
-      <c r="AA1">
-        <v>8425103</v>
-      </c>
-      <c r="AB1">
-        <v>8425103</v>
-      </c>
-      <c r="AC1">
-        <v>8425103</v>
-      </c>
-      <c r="AD1">
-        <v>8425103</v>
-      </c>
-      <c r="AE1">
+      <c r="W1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="Y1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="Z1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AA1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AB1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD1" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE1" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>8425103</v>
-      </c>
-      <c r="B2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>8359312</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>8490898</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>8819863</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>9017242</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>9280414</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0" t="n">
         <v>9477539</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0" t="n">
         <v>8883343</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0" t="n">
         <v>5721673</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0" t="n">
         <v>3417115</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0" t="n">
         <v>2694680</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0" t="n">
         <v>2628885</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0" t="n">
         <v>2760465</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0" t="n">
         <v>4798765</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0" t="n">
         <v>6903878</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="0" t="n">
         <v>5258798</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="0" t="n">
         <v>4468771</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="0" t="n">
         <v>4140321</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0" t="n">
         <v>3155229</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="0" t="n">
         <v>5461589</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="0" t="n">
         <v>8622482</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="0" t="n">
         <v>8622995</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="Y2">
-        <v>8425103</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="Z2" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="AA2">
-        <v>8425103</v>
-      </c>
-      <c r="AB2">
-        <v>8425103</v>
-      </c>
-      <c r="AC2">
-        <v>8425103</v>
-      </c>
-      <c r="AD2">
-        <v>8425103</v>
-      </c>
-      <c r="AE2">
+      <c r="AA2" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE2" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>8425103</v>
-      </c>
-      <c r="B3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>8490898</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>8688277</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>9148828</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>9477023</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0" t="n">
         <v>9805986</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0" t="n">
         <v>9213328</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0" t="n">
         <v>7100742</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0" t="n">
         <v>6311478</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0" t="n">
         <v>3877663</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0" t="n">
         <v>3285790</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0" t="n">
         <v>2563607</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0" t="n">
         <v>3482138</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0" t="n">
         <v>5455148</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="0" t="n">
         <v>9337188</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="0" t="n">
         <v>9337442</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="0" t="n">
         <v>6443066</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="0" t="n">
         <v>7692103</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="0" t="n">
         <v>5980975</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="0" t="n">
         <v>4338216</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="0" t="n">
         <v>6185308</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="0" t="n">
         <v>9148826</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="0" t="n">
         <v>8688275</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="Z3">
-        <v>8425103</v>
-      </c>
-      <c r="AA3">
-        <v>8425103</v>
-      </c>
-      <c r="AB3">
-        <v>8425103</v>
-      </c>
-      <c r="AC3">
-        <v>8425103</v>
-      </c>
-      <c r="AD3">
-        <v>8425103</v>
-      </c>
-      <c r="AE3">
+      <c r="Z3" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE3" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>8425103</v>
-      </c>
-      <c r="B4">
-        <v>8425103</v>
-      </c>
-      <c r="C4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>8688277</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>9017242</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>9674402</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>10003365</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>10200744</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>7564136</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0" t="n">
         <v>8677718</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0" t="n">
         <v>9400665</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0" t="n">
         <v>6705216</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0" t="n">
         <v>3745563</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>3285529</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0" t="n">
         <v>2826007</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0" t="n">
         <v>3549212</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0" t="n">
         <v>5981234</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0" t="n">
         <v>9074786</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="0" t="n">
         <v>11968134</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0" t="n">
         <v>10519142</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="0" t="n">
         <v>10257255</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="0" t="n">
         <v>8348493</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="0" t="n">
         <v>6048314</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="0" t="n">
         <v>9277844</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="0" t="n">
         <v>9148056</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="0" t="n">
         <v>8688275</v>
       </c>
-      <c r="Z4">
-        <v>8425103</v>
-      </c>
-      <c r="AA4">
-        <v>8425103</v>
-      </c>
-      <c r="AB4">
-        <v>8425103</v>
-      </c>
-      <c r="AC4">
-        <v>8425103</v>
-      </c>
-      <c r="AD4">
-        <v>8425103</v>
-      </c>
-      <c r="AE4">
+      <c r="Z4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE4" s="0" t="n">
         <v>8359310</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>8425103</v>
-      </c>
-      <c r="B5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>8951449</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>9477023</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>10003365</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>10463659</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>10266280</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>5588533</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0" t="n">
         <v>6967870</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0" t="n">
         <v>10783086</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0" t="n">
         <v>10717293</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0" t="n">
         <v>5126953</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0" t="n">
         <v>4009503</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0" t="n">
         <v>5980724</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0" t="n">
         <v>5455150</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="0" t="n">
         <v>5389359</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="0" t="n">
         <v>5719089</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="0" t="n">
         <v>10783605</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="0" t="n">
         <v>12954767</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="0" t="n">
         <v>12625800</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="0" t="n">
         <v>12756100</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="0" t="n">
         <v>10191462</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="0" t="n">
         <v>9209731</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="0" t="n">
         <v>9477021</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="0" t="n">
         <v>8950677</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AA5">
-        <v>8425103</v>
-      </c>
-      <c r="AB5">
-        <v>8425103</v>
-      </c>
-      <c r="AC5">
-        <v>8425103</v>
-      </c>
-      <c r="AD5">
-        <v>8425103</v>
-      </c>
-      <c r="AE5">
+      <c r="AA5" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE5" s="0" t="n">
         <v>8359310</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>8622484</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>9148828</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>9805988</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>10332330</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>10858416</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>10134693</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>5126187</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0" t="n">
         <v>6638133</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0" t="n">
         <v>10452324</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0" t="n">
         <v>13019791</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0" t="n">
         <v>10256488</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0" t="n">
         <v>5519656</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0" t="n">
         <v>5061160</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0" t="n">
         <v>5784107</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="0" t="n">
         <v>6966069</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="0" t="n">
         <v>9860952</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0" t="n">
         <v>11045486</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0" t="n">
         <v>12362114</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="0" t="n">
         <v>10847847</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="0" t="n">
         <v>11834226</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="0" t="n">
         <v>11639416</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="0" t="n">
         <v>9405299</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="0" t="n">
         <v>9740193</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="0" t="n">
         <v>9148056</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="0" t="n">
         <v>8556689</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB6">
-        <v>8425103</v>
-      </c>
-      <c r="AC6">
-        <v>8425103</v>
-      </c>
-      <c r="AD6">
+      <c r="AB6" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD6" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>8425103</v>
-      </c>
-      <c r="B7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>8688277</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>9346207</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>10134951</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>10792624</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>11318967</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>10397095</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>4534816</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0" t="n">
         <v>6966839</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>10650219</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0" t="n">
         <v>12955029</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0" t="n">
         <v>13744030</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0" t="n">
         <v>12426630</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0" t="n">
         <v>10124386</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0" t="n">
         <v>9859925</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="0" t="n">
         <v>11900538</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="0" t="n">
         <v>11703158</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0" t="n">
         <v>11768181</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="0" t="n">
         <v>11044710</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="0" t="n">
         <v>8939085</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="0" t="n">
         <v>8741445</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="0" t="n">
         <v>11374955</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="0" t="n">
         <v>9336931</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="0" t="n">
         <v>9937572</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="0" t="n">
         <v>9279642</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="0" t="n">
         <v>8622482</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB7">
-        <v>8425103</v>
-      </c>
-      <c r="AC7">
+      <c r="AB7" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AC7" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="AD7">
-        <v>8425103</v>
-      </c>
-      <c r="AE7">
+      <c r="AD7" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE7" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>8491409</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>9016472</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>9674402</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>10267307</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>11186611</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>11778748</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>9871522</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>4928808</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0" t="n">
         <v>6900278</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0" t="n">
         <v>10189670</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0" t="n">
         <v>12559242</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>13810338</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0" t="n">
         <v>14731187</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0" t="n">
         <v>14599854</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0" t="n">
         <v>14468014</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0" t="n">
         <v>13545877</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0" t="n">
         <v>15388341</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0" t="n">
         <v>13808018</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="0" t="n">
         <v>13677720</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="0" t="n">
         <v>11373166</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="0" t="n">
         <v>9465175</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="0" t="n">
         <v>9137489</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="0" t="n">
         <v>9071185</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="0" t="n">
         <v>10003365</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="0" t="n">
         <v>9346205</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="0" t="n">
         <v>8688277</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="0" t="n">
         <v>8425616</v>
       </c>
-      <c r="AD8">
-        <v>8425103</v>
-      </c>
-      <c r="AE8">
+      <c r="AD8" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE8" s="0" t="n">
         <v>8555921</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8491409</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>9279644</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>9871779</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>10661295</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>11253176</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>11910334</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>10067871</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0" t="n">
         <v>4601122</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0" t="n">
         <v>6177071</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0" t="n">
         <v>9005653</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0" t="n">
         <v>11703418</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0" t="n">
         <v>13347732</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0" t="n">
         <v>14401192</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0" t="n">
         <v>15258297</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0" t="n">
         <v>15654601</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0" t="n">
         <v>15587527</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0" t="n">
         <v>14532002</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0" t="n">
         <v>14664105</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="0" t="n">
         <v>13874076</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="0" t="n">
         <v>13282965</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="0" t="n">
         <v>12164482</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="0" t="n">
         <v>8150594</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="0" t="n">
         <v>8084801</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="0" t="n">
         <v>9739935</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="0" t="n">
         <v>9542814</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="0" t="n">
         <v>8754068</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="0" t="n">
         <v>8555919</v>
       </c>
-      <c r="AC9">
-        <v>8425103</v>
-      </c>
-      <c r="AD9">
-        <v>8425103</v>
-      </c>
-      <c r="AE9">
+      <c r="AC9" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE9" s="0" t="n">
         <v>8621712</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>8425362</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>9279644</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>9937572</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>10727088</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>11384507</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>12108483</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0" t="n">
         <v>9868691</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0" t="n">
         <v>4731427</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0" t="n">
         <v>5717035</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0" t="n">
         <v>7821380</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0" t="n">
         <v>10189670</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0" t="n">
         <v>12032644</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0" t="n">
         <v>13480862</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0" t="n">
         <v>14466988</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0" t="n">
         <v>15191480</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="0" t="n">
         <v>15587011</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="0" t="n">
         <v>15520954</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0" t="n">
         <v>15387828</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="0" t="n">
         <v>14533800</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="0" t="n">
         <v>14006686</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="0" t="n">
         <v>13349526</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="0" t="n">
         <v>8743000</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="0" t="n">
         <v>7822401</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="0" t="n">
         <v>9673113</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="0" t="n">
         <v>9608862</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="0" t="n">
         <v>8754581</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="AC10">
-        <v>8425103</v>
-      </c>
-      <c r="AD10">
-        <v>8425103</v>
-      </c>
-      <c r="AE10">
+      <c r="AC10" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE10" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>8688277</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>9411230</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>10200999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>10858417</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>11385020</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>12042690</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0" t="n">
         <v>9012352</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0" t="n">
         <v>4731427</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0" t="n">
         <v>5323305</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0" t="n">
         <v>7360314</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0" t="n">
         <v>10123108</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0" t="n">
         <v>11045749</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0" t="n">
         <v>12295818</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0" t="n">
         <v>13612195</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0" t="n">
         <v>14270887</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="0" t="n">
         <v>14468528</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="0" t="n">
         <v>14731700</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="0" t="n">
         <v>15128257</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="0" t="n">
         <v>15389119</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="0" t="n">
         <v>14401709</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="0" t="n">
         <v>13415069</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="0" t="n">
         <v>10124902</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="0" t="n">
         <v>9071185</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="0" t="n">
         <v>10067612</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="0" t="n">
         <v>9739933</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="0" t="n">
         <v>8754581</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="0" t="n">
         <v>8555919</v>
       </c>
-      <c r="AD11">
-        <v>8425103</v>
-      </c>
-      <c r="AE11">
+      <c r="AD11" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE11" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>8688023</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>9345437</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>10069413</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>10726831</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>11319227</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>12174276</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0" t="n">
         <v>9999506</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0" t="n">
         <v>5452321</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0" t="n">
         <v>5979953</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0" t="n">
         <v>7228471</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0" t="n">
         <v>9926755</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0" t="n">
         <v>10256491</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0" t="n">
         <v>10715245</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0" t="n">
         <v>12296846</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0" t="n">
         <v>14205872</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="0" t="n">
         <v>14138020</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="0" t="n">
         <v>12821136</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="0" t="n">
         <v>12557448</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="0" t="n">
         <v>13546905</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="0" t="n">
         <v>14336169</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="0" t="n">
         <v>14138790</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="0" t="n">
         <v>10782832</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="0" t="n">
         <v>10648160</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="0" t="n">
         <v>10791335</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="0" t="n">
         <v>9805726</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="0" t="n">
         <v>8754581</v>
       </c>
-      <c r="AA12">
-        <v>8425103</v>
-      </c>
-      <c r="AB12">
+      <c r="AA12" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AB12" s="0" t="n">
         <v>8555919</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="0" t="n">
         <v>8555919</v>
       </c>
-      <c r="AD12">
-        <v>8425103</v>
-      </c>
-      <c r="AE12">
+      <c r="AD12" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE12" s="0" t="n">
         <v>8359823</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>8688534</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>9477023</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>10200744</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>10792881</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>11253434</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>11911104</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0" t="n">
         <v>11645615</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0" t="n">
         <v>6305320</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0" t="n">
         <v>6506040</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0" t="n">
         <v>7490873</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0" t="n">
         <v>7493442</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0" t="n">
         <v>5785920</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0" t="n">
         <v>6967878</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0" t="n">
         <v>10190444</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0" t="n">
         <v>14139570</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="0" t="n">
         <v>13810855</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="0" t="n">
         <v>10191986</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="0" t="n">
         <v>6644834</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="0" t="n">
         <v>8808795</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="0" t="n">
         <v>13151125</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="0" t="n">
         <v>14466988</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="0" t="n">
         <v>10848362</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="0" t="n">
         <v>12886152</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="0" t="n">
         <v>10988973</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="0" t="n">
         <v>9674655</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="0" t="n">
         <v>8754581</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="0" t="n">
         <v>8555919</v>
       </c>
-      <c r="AC13">
-        <v>8425103</v>
-      </c>
-      <c r="AD13">
+      <c r="AC13" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD13" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>8622741</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>9411230</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>10003365</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>10727088</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>11318969</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>12042692</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0" t="n">
         <v>12831436</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0" t="n">
         <v>8284769</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0" t="n">
         <v>6178102</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0" t="n">
         <v>9332819</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0" t="n">
         <v>9861479</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0" t="n">
         <v>9142394</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0" t="n">
         <v>10259329</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0" t="n">
         <v>10321513</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0" t="n">
         <v>15389631</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="0" t="n">
         <v>15654351</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="0" t="n">
         <v>13547942</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="0" t="n">
         <v>12364446</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="0" t="n">
         <v>15258562</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="0" t="n">
         <v>15718083</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="0" t="n">
         <v>14269608</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="0" t="n">
         <v>12425601</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="0" t="n">
         <v>13744810</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="0" t="n">
         <v>10661037</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="0" t="n">
         <v>9477791</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="0" t="n">
         <v>8819861</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="0" t="n">
         <v>8556689</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AC14">
-        <v>8425103</v>
-      </c>
-      <c r="AD14">
+      <c r="AC14" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AD14" s="0" t="n">
         <v>8359823</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>8622741</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>9477023</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>10069160</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>10530479</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>11253174</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>11911106</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0" t="n">
         <v>12635087</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>10262678</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0" t="n">
         <v>6306865</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0" t="n">
         <v>9397842</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0" t="n">
         <v>12820618</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0" t="n">
         <v>13347994</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0" t="n">
         <v>12691346</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0" t="n">
         <v>11241327</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0" t="n">
         <v>15518133</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="0" t="n">
         <v>15915201</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="0" t="n">
         <v>15719374</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="0" t="n">
         <v>15323072</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="0" t="n">
         <v>15915465</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="0" t="n">
         <v>15914174</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="0" t="n">
         <v>13875870</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="0" t="n">
         <v>15123367</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="0" t="n">
         <v>13089713</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="0" t="n">
         <v>10529709</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="0" t="n">
         <v>9609377</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="0" t="n">
         <v>8819863</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="0" t="n">
         <v>8294030</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="0" t="n">
         <v>8425616</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="0" t="n">
         <v>8555921</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>8622482</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>9411228</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>10003365</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>10529709</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>11253176</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>11845313</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0" t="n">
         <v>12503243</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>11711158</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0" t="n">
         <v>6963248</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0" t="n">
         <v>8739399</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0" t="n">
         <v>13543054</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0" t="n">
         <v>15058612</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0" t="n">
         <v>12821137</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0" t="n">
         <v>10711636</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0" t="n">
         <v>14925990</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="0" t="n">
         <v>15518125</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="0" t="n">
         <v>14860714</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="0" t="n">
         <v>15255221</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="0" t="n">
         <v>16046535</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="0" t="n">
         <v>15387058</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="0" t="n">
         <v>14071970</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="0" t="n">
         <v>14400682</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="0" t="n">
         <v>11516598</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="0" t="n">
         <v>10529709</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="0" t="n">
         <v>9673889</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="0" t="n">
         <v>8754068</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="0" t="n">
         <v>8359822</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="0" t="n">
         <v>8359312</v>
       </c>
-      <c r="AD16">
-        <v>8425103</v>
-      </c>
-      <c r="AE16">
+      <c r="AD16" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE16" s="0" t="n">
         <v>8556174</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>8622482</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>9345435</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>9937572</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>10463916</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>11121590</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>11647934</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0" t="n">
         <v>12305864</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>12898512</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0" t="n">
         <v>12370113</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0" t="n">
         <v>8413265</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0" t="n">
         <v>12160624</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0" t="n">
         <v>14003344</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0" t="n">
         <v>9991009</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0" t="n">
         <v>8542020</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0" t="n">
         <v>11239787</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="0" t="n">
         <v>13676701</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="0" t="n">
         <v>14732220</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0" t="n">
         <v>11898228</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0" t="n">
         <v>13739406</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="0" t="n">
         <v>14200205</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="0" t="n">
         <v>13416871</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="0" t="n">
         <v>12174791</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="0" t="n">
         <v>11384762</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="0" t="n">
         <v>10135721</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="0" t="n">
         <v>9542814</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="0" t="n">
         <v>9016212</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="0" t="n">
         <v>8294548</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="0" t="n">
         <v>8360590</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="0" t="n">
         <v>8621714</v>
       </c>
-      <c r="AD17">
-        <v>8425103</v>
-      </c>
-      <c r="AE17">
+      <c r="AD17" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE17" s="0" t="n">
         <v>8359822</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>8622482</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>9279644</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>9871779</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>10398123</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>10990003</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>11450555</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0" t="n">
         <v>12042692</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>12634574</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0" t="n">
         <v>13621206</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0" t="n">
         <v>9139308</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0" t="n">
         <v>9726546</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0" t="n">
         <v>10650217</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0" t="n">
         <v>8347726</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0" t="n">
         <v>10253668</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0" t="n">
         <v>12490374</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="0" t="n">
         <v>13084570</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="0" t="n">
         <v>12493462</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="0" t="n">
         <v>10715511</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="0" t="n">
         <v>10712411</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="0" t="n">
         <v>12490103</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="0" t="n">
         <v>12365988</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="0" t="n">
         <v>12042692</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="0" t="n">
         <v>10793650</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="0" t="n">
         <v>10529451</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="0" t="n">
         <v>9739672</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="0" t="n">
         <v>8688534</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="0" t="n">
         <v>8425105</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="0" t="n">
         <v>8425102</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="0" t="n">
         <v>8425616</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="0" t="n">
         <v>8555669</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="0" t="n">
         <v>8228751</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>8556689</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>9213851</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>9740193</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>10266537</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>10792624</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0" t="n">
         <v>11253176</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>11713727</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>12371657</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0" t="n">
         <v>13160655</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0" t="n">
         <v>11512746</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0" t="n">
         <v>9068364</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0" t="n">
         <v>13148558</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0" t="n">
         <v>10321266</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0" t="n">
         <v>8211777</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0" t="n">
         <v>11502717</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="0" t="n">
         <v>13018528</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="0" t="n">
         <v>13346200</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="0" t="n">
         <v>14468278</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="0" t="n">
         <v>12095616</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="0" t="n">
         <v>11373944</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="0" t="n">
         <v>11974589</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="0" t="n">
         <v>10791856</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="0" t="n">
         <v>10790567</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="0" t="n">
         <v>14923676</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="0" t="n">
         <v>14468268</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="0" t="n">
         <v>9016474</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="0" t="n">
         <v>8621455</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="0" t="n">
         <v>8556689</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="0" t="n">
         <v>8359823</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="0" t="n">
         <v>8555659</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="0" t="n">
         <v>8490895</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>9082265</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>9674400</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>10200744</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>10661038</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>11055797</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0" t="n">
         <v>11450555</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>12042692</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0" t="n">
         <v>12831436</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0" t="n">
         <v>12964822</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0" t="n">
         <v>10394007</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>10188126</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0" t="n">
         <v>12229251</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0" t="n">
         <v>10979446</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0" t="n">
         <v>11964282</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="0" t="n">
         <v>13346454</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="0" t="n">
         <v>14797243</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="0" t="n">
         <v>14338738</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="0" t="n">
         <v>11638664</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="0" t="n">
         <v>12566463</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="0" t="n">
         <v>12307412</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="0" t="n">
         <v>7570572</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="0" t="n">
         <v>8479312</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="0" t="n">
         <v>15780014</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="0" t="n">
         <v>13482412</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="0" t="n">
         <v>8754068</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="0" t="n">
         <v>8229006</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="0" t="n">
         <v>8621201</v>
       </c>
-      <c r="AD20">
-        <v>8425103</v>
-      </c>
-      <c r="AE20">
+      <c r="AD20" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="AE20" s="0" t="n">
         <v>8425105</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>9016472</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>9608607</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>10134951</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>10463916</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0" t="n">
         <v>10858417</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0" t="n">
         <v>11187383</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>11582141</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0" t="n">
         <v>12240329</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0" t="n">
         <v>13094608</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0" t="n">
         <v>9936032</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0" t="n">
         <v>5128253</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0" t="n">
         <v>9203035</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0" t="n">
         <v>12558988</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="0" t="n">
         <v>13415077</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="0" t="n">
         <v>14862523</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="0" t="n">
         <v>14995651</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="0" t="n">
         <v>12693411</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="0" t="n">
         <v>12766160</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="0" t="n">
         <v>13753057</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="0" t="n">
         <v>10661817</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="0" t="n">
         <v>4477281</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="0" t="n">
         <v>8214605</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="0" t="n">
         <v>15122338</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="0" t="n">
         <v>12693411</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="0" t="n">
         <v>8820371</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="0" t="n">
         <v>8687507</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="0" t="n">
         <v>8294546</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="0" t="n">
         <v>8490898</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="0" t="n">
         <v>8359569</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="0" t="n">
         <v>8490126</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22">
-        <v>8425103</v>
-      </c>
-      <c r="B22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>8754070</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>9477023</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>10003365</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>10332330</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>10661295</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0" t="n">
         <v>10924467</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>11319480</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0" t="n">
         <v>11911104</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0" t="n">
         <v>11976129</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0" t="n">
         <v>4739153</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0" t="n">
         <v>4079690</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0" t="n">
         <v>4535596</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0" t="n">
         <v>9533025</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0" t="n">
         <v>12953235</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="0" t="n">
         <v>13086880</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="0" t="n">
         <v>12037801</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="0" t="n">
         <v>13029849</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="0" t="n">
         <v>14082022</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="0" t="n">
         <v>12306642</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="0" t="n">
         <v>5201774</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="0" t="n">
         <v>4214877</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="0" t="n">
         <v>6835528</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="0" t="n">
         <v>13869700</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="0" t="n">
         <v>13219230</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="0" t="n">
         <v>7108475</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="0" t="n">
         <v>6780541</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="0" t="n">
         <v>6977405</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="0" t="n">
         <v>7306624</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="0" t="n">
         <v>8490379</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="0" t="n">
         <v>8425103</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>8622484</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>9279644</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>9805986</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>10134951</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>10529709</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0" t="n">
         <v>10792881</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0" t="n">
         <v>10991285</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0" t="n">
         <v>10791856</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="0" t="n">
         <v>4607567</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0" t="n">
         <v>3226692</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0" t="n">
         <v>7174535</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0" t="n">
         <v>8292498</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0" t="n">
         <v>5592151</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="0" t="n">
         <v>6381668</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="0" t="n">
         <v>10990010</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="0" t="n">
         <v>13885158</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="0" t="n">
         <v>14477293</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="0" t="n">
         <v>13424864</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="0" t="n">
         <v>7041666</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="0" t="n">
         <v>4872807</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="0" t="n">
         <v>3950678</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="0" t="n">
         <v>4340537</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="0" t="n">
         <v>13149059</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="0" t="n">
         <v>15982020</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="0" t="n">
         <v>9340537</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="0" t="n">
         <v>4148057</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="0" t="n">
         <v>4806244</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="0" t="n">
         <v>5069418</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="0" t="n">
         <v>5463917</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="0" t="n">
         <v>8359058</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24">
-        <v>8425103</v>
-      </c>
-      <c r="B24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>8687505</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>8885656</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>9543584</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>10068900</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>10267307</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0" t="n">
         <v>10068649</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0" t="n">
         <v>8489104</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0" t="n">
         <v>3817799</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="0" t="n">
         <v>3160129</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0" t="n">
         <v>5133923</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0" t="n">
         <v>8425115</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0" t="n">
         <v>7500143</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0" t="n">
         <v>6709352</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0" t="n">
         <v>5788755</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="0" t="n">
         <v>10199204</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="0" t="n">
         <v>14542575</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="0" t="n">
         <v>14739188</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="0" t="n">
         <v>8950170</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="0" t="n">
         <v>5267567</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="0" t="n">
         <v>4739940</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="0" t="n">
         <v>3357512</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="0" t="n">
         <v>4867138</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="0" t="n">
         <v>13016960</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="0" t="n">
         <v>15257522</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="0" t="n">
         <v>14993321</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="0" t="n">
         <v>5527650</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="0" t="n">
         <v>4938349</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="0" t="n">
         <v>4871778</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="0" t="n">
         <v>4411235</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="0" t="n">
         <v>7240831</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>8819093</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>9279644</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>8160391</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>5594464</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0" t="n">
         <v>2961977</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0" t="n">
         <v>2566444</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0" t="n">
         <v>3753038</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="0" t="n">
         <v>3884624</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0" t="n">
         <v>7240841</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0" t="n">
         <v>4145483</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0" t="n">
         <v>5518355</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0" t="n">
         <v>9922094</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="0" t="n">
         <v>13081430</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="0" t="n">
         <v>6307879</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="0" t="n">
         <v>11253436</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="0" t="n">
         <v>12306642</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="0" t="n">
         <v>5398122</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="0" t="n">
         <v>5135212</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="0" t="n">
         <v>3820120</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="0" t="n">
         <v>8284769</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="0" t="n">
         <v>14072997</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="0" t="n">
         <v>15981505</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="0" t="n">
         <v>15519667</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="0" t="n">
         <v>15521720</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="0" t="n">
         <v>11442827</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="0" t="n">
         <v>4346461</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="0" t="n">
         <v>3819603</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="0" t="n">
         <v>3423305</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="0" t="n">
         <v>6056303</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="B26">
-        <v>8425103</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="0" t="n">
+        <v>8425103</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>8621712</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>5463137</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>3028285</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2829877</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>2763569</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0" t="n">
         <v>2698807</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0" t="n">
         <v>5200491</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0" t="n">
         <v>7701388</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0" t="n">
         <v>11451591</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0" t="n">
         <v>7108223</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0" t="n">
         <v>5846568</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0" t="n">
         <v>12226381</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0" t="n">
         <v>10581571</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="0" t="n">
         <v>7960701</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="0" t="n">
         <v>7173504</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="0" t="n">
         <v>6450293</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="0" t="n">
         <v>4740194</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="0" t="n">
         <v>3951955</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="0" t="n">
         <v>4475478</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="0" t="n">
         <v>10387560</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="0" t="n">
         <v>14336167</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="0" t="n">
         <v>15062715</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="0" t="n">
         <v>14729379</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="0" t="n">
         <v>15783867</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="0" t="n">
         <v>14927787</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="0" t="n">
         <v>9932423</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="0" t="n">
         <v>5663606</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="0" t="n">
         <v>3488583</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="0" t="n">
         <v>5859178</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>8490126</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>8490896</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>6581616</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>2830906</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>3488837</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>2894389</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>2500651</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0" t="n">
         <v>3753038</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0" t="n">
         <v>6122877</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="0" t="n">
         <v>12766424</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0" t="n">
         <v>11122628</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0" t="n">
         <v>8227734</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0" t="n">
         <v>6373423</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0" t="n">
         <v>12292959</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0" t="n">
         <v>7885353</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="0" t="n">
         <v>9674918</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="0" t="n">
         <v>9476512</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="0" t="n">
         <v>4081752</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="0" t="n">
         <v>3489612</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="0" t="n">
         <v>3753036</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="0" t="n">
         <v>4082011</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="0" t="n">
         <v>9203549</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="0" t="n">
         <v>12625553</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="0" t="n">
         <v>13745311</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="0" t="n">
         <v>13675921</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="0" t="n">
         <v>15585720</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="0" t="n">
         <v>14730401</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="0" t="n">
         <v>12954247</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="0" t="n">
         <v>10593451</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="0" t="n">
         <v>6121853</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="0" t="n">
         <v>6517114</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>8621714</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>8293519</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>4213070</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>3028285</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>3225411</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>2829366</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0" t="n">
         <v>2566442</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0" t="n">
         <v>4608608</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0" t="n">
         <v>7240839</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="0" t="n">
         <v>10859453</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0" t="n">
         <v>12568785</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>11186362</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0" t="n">
         <v>7426873</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0" t="n">
         <v>13541728</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="0" t="n">
         <v>7228720</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="0" t="n">
         <v>9542056</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="0" t="n">
         <v>6843512</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="0" t="n">
         <v>3883856</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="0" t="n">
         <v>3094338</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="0" t="n">
         <v>3883854</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="0" t="n">
         <v>3095359</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="0" t="n">
         <v>8874584</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="0" t="n">
         <v>12690315</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0" t="n">
         <v>13743516</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0" t="n">
         <v>13149826</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="0" t="n">
         <v>14203803</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="0" t="n">
         <v>14597793</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="0" t="n">
         <v>13941146</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="0" t="n">
         <v>11443597</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="0" t="n">
         <v>11384257</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="0" t="n">
         <v>5135728</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>8490128</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>7503233</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>3357763</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>3423043</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>3027773</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>2500912</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0" t="n">
         <v>2632494</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0" t="n">
         <v>4938600</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0" t="n">
         <v>5397611</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0" t="n">
         <v>11450815</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0" t="n">
         <v>13095129</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0" t="n">
         <v>8945276</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0" t="n">
         <v>7820592</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0" t="n">
         <v>6970960</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0" t="n">
         <v>10385481</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="0" t="n">
         <v>7499889</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="0" t="n">
         <v>4016467</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="0" t="n">
         <v>3752784</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="0" t="n">
         <v>3488837</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="0" t="n">
         <v>3619653</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="0" t="n">
         <v>2501686</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="0" t="n">
         <v>7560013</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="0" t="n">
         <v>12822152</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0" t="n">
         <v>13546905</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0" t="n">
         <v>12557689</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="0" t="n">
         <v>14005395</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="0" t="n">
         <v>14336420</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="0" t="n">
         <v>14007717</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="0" t="n">
         <v>11441275</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="0" t="n">
         <v>12764105</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="0" t="n">
         <v>6582907</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>6318446</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>3291457</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>3422273</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>2764084</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>2369324</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0" t="n">
         <v>2632496</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0" t="n">
         <v>4873061</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0" t="n">
         <v>8357780</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0" t="n">
         <v>12569812</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0" t="n">
         <v>10987693</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0" t="n">
         <v>6240798</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0" t="n">
         <v>5455917</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0" t="n">
         <v>13081688</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0" t="n">
         <v>12950102</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="0" t="n">
         <v>5915192</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="0" t="n">
         <v>4082264</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="0" t="n">
         <v>3949395</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="0" t="n">
         <v>3950928</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="0" t="n">
         <v>2634040</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="0" t="n">
         <v>2501686</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="0" t="n">
         <v>5982525</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="0" t="n">
         <v>12888975</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0" t="n">
         <v>13941670</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0" t="n">
         <v>12557438</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="0" t="n">
         <v>13480591</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="0" t="n">
         <v>14402471</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="0" t="n">
         <v>13087642</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="0" t="n">
         <v>9994861</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="0" t="n">
         <v>10922929</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="0" t="n">
         <v>8292498</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>8359310</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>5002073</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>2764858</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>3290687</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>2500397</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0" t="n">
         <v>2237738</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0" t="n">
         <v>2697778</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0" t="n">
         <v>5068905</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0" t="n">
         <v>8623262</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0" t="n">
         <v>11187391</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0" t="n">
         <v>7300703</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0" t="n">
         <v>4664862</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0" t="n">
         <v>9528112</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0" t="n">
         <v>13410642</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="0" t="n">
         <v>11765830</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="0" t="n">
         <v>3947067</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="0" t="n">
         <v>4015958</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="0" t="n">
         <v>3752009</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="0" t="n">
         <v>3751759</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="0" t="n">
         <v>2436146</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="0" t="n">
         <v>2500912</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="0" t="n">
         <v>2698805</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="0" t="n">
         <v>10321767</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="0" t="n">
         <v>12492936</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="0" t="n">
         <v>12098689</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="0" t="n">
         <v>12362377</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="0" t="n">
         <v>12955025</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" s="0" t="n">
         <v>10389367</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="0" t="n">
         <v>10719882</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="0" t="n">
         <v>10661815</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="0" t="n">
         <v>6713466</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>